--- a/capiq_data/in_process_data/IQ59502420.xlsx
+++ b/capiq_data/in_process_data/IQ59502420.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE6B8171-C53A-4250-BA6D-41074E245473}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0197FAAA-D890-401D-B2A2-99F80B92C801}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"74aff8d1-2631-4161-b892-f9b232bc3f26"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"dafaae47-6431-4fb5-8c17-b458766b002d"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$49</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$49</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$49</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$49</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$49</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$49</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$49</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$49</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$49</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$49</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$49</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$49</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$49</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$49</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$49</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$49</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$49</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$49</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$49</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$49</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$49</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$49</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$49</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$49</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$49</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$49</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$49</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,27 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +660,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,203 +754,203 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>39903</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>75</v>
+        <v>552</v>
       </c>
       <c r="D2">
-        <v>3652</v>
+        <v>2409</v>
       </c>
       <c r="E2">
-        <v>2307</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>442</v>
+        <v>-55</v>
       </c>
       <c r="G2">
-        <v>7666</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>11082</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-207</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>-146</v>
       </c>
       <c r="N2">
-        <v>3719</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4983</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>289</v>
+        <v>6604</v>
       </c>
       <c r="Q2">
-        <v>-486</v>
+        <v>-309</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>39903</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>6099</v>
+        <v>-14266</v>
       </c>
       <c r="U2">
-        <v>3219</v>
+        <v>0</v>
       </c>
       <c r="V2">
-        <v>287</v>
+        <v>-176</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>-9</v>
+        <v>97</v>
       </c>
       <c r="Y2">
         <v>0</v>
       </c>
       <c r="Z2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>75</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>39994</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>291</v>
+        <v>-603</v>
       </c>
       <c r="D3">
-        <v>3997</v>
+        <v>2775</v>
       </c>
       <c r="E3">
-        <v>2794</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>644</v>
+        <v>141</v>
       </c>
       <c r="G3">
-        <v>6133</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9724</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>2429</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2455</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-57</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4013</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>7817</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>2751</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>-1586</v>
+        <v>173</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>39994</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1907</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>1633</v>
+        <v>0</v>
       </c>
       <c r="V3">
-        <v>156</v>
+        <v>4</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-2204</v>
+        <v>57</v>
       </c>
       <c r="Y3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="AA3">
-        <v>291</v>
+        <v>-603</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>40086</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>298</v>
+        <v>-2603</v>
       </c>
       <c r="D4">
-        <v>4213</v>
+        <v>3153</v>
       </c>
       <c r="E4">
-        <v>2865</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>695</v>
+        <v>182</v>
       </c>
       <c r="G4">
-        <v>5957</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>9627</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2560</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>2056</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>130</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,37 +959,37 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>4025</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>7385</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>-311</v>
+        <v>-35</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>40086</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>2242</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>1322</v>
+        <v>0</v>
       </c>
       <c r="V4">
-        <v>343</v>
+        <v>-112</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>-553</v>
+        <v>114</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -977,42 +998,42 @@
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>298</v>
+        <v>-2603</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>40178</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>266</v>
+        <v>11998</v>
       </c>
       <c r="D5">
-        <v>3931</v>
+        <v>3418</v>
       </c>
       <c r="E5">
-        <v>2644</v>
+        <v>2213</v>
       </c>
       <c r="F5">
-        <v>637</v>
+        <v>150</v>
       </c>
       <c r="G5">
-        <v>5673</v>
+        <v>6835</v>
       </c>
       <c r="H5">
-        <v>9184</v>
+        <v>10307</v>
       </c>
       <c r="I5">
-        <v>2385</v>
+        <v>1872</v>
       </c>
       <c r="J5">
-        <v>2031</v>
+        <v>94</v>
       </c>
       <c r="K5">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1042,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3881</v>
+        <v>3426</v>
       </c>
       <c r="O5">
-        <v>7220</v>
+        <v>4941</v>
       </c>
       <c r="P5">
-        <v>2173</v>
+        <v>396</v>
       </c>
       <c r="Q5">
-        <v>64</v>
+        <v>2319</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>40178</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1964</v>
+        <v>5366</v>
       </c>
       <c r="U5">
-        <v>1252</v>
+        <v>3107</v>
       </c>
       <c r="V5">
-        <v>410</v>
+        <v>186</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>-151</v>
+        <v>2109</v>
       </c>
       <c r="Y5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AA5">
-        <v>266</v>
+        <v>11954</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>40268</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>290</v>
+        <v>215</v>
       </c>
       <c r="D6">
-        <v>3900</v>
+        <v>3410</v>
       </c>
       <c r="E6">
-        <v>2459</v>
+        <v>434</v>
       </c>
       <c r="F6">
-        <v>679</v>
+        <v>562</v>
       </c>
       <c r="G6">
-        <v>5501</v>
+        <v>7181</v>
       </c>
       <c r="H6">
-        <v>9128</v>
+        <v>10530</v>
       </c>
       <c r="I6">
-        <v>2397</v>
+        <v>1923</v>
       </c>
       <c r="J6">
-        <v>1996</v>
+        <v>88</v>
       </c>
       <c r="K6">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1125,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3712</v>
+        <v>3545</v>
       </c>
       <c r="O6">
-        <v>6957</v>
+        <v>4926</v>
       </c>
       <c r="P6">
-        <v>2103</v>
+        <v>438</v>
       </c>
       <c r="Q6">
-        <v>-23</v>
+        <v>189</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>40268</v>
       </c>
       <c r="S6">
-        <v>104000</v>
+        <v>0</v>
       </c>
       <c r="T6">
-        <v>2171</v>
+        <v>5604</v>
       </c>
       <c r="U6">
-        <v>1363</v>
+        <v>3296</v>
       </c>
       <c r="V6">
-        <v>468</v>
+        <v>246</v>
       </c>
       <c r="W6">
-        <v>-93</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>-286</v>
+        <v>52</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>-35</v>
+        <v>-100</v>
       </c>
       <c r="AA6">
-        <v>290</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>40359</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>342</v>
+        <v>214</v>
       </c>
       <c r="D7">
-        <v>4092</v>
+        <v>3446</v>
       </c>
       <c r="E7">
-        <v>2854</v>
+        <v>428</v>
       </c>
       <c r="F7">
-        <v>719</v>
+        <v>543</v>
       </c>
       <c r="G7">
-        <v>6016</v>
+        <v>7262</v>
       </c>
       <c r="H7">
-        <v>9688</v>
+        <v>10469</v>
       </c>
       <c r="I7">
-        <v>2469</v>
+        <v>1974</v>
       </c>
       <c r="J7">
-        <v>1996</v>
+        <v>84</v>
       </c>
       <c r="K7">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="L7">
-        <v>-18</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>3888</v>
+        <v>3469</v>
       </c>
       <c r="O7">
-        <v>7043</v>
+        <v>4777</v>
       </c>
       <c r="P7">
-        <v>2085</v>
+        <v>332</v>
       </c>
       <c r="Q7">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>40359</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>2645</v>
+        <v>5692</v>
       </c>
       <c r="U7">
-        <v>1412</v>
+        <v>3383</v>
       </c>
       <c r="V7">
-        <v>293</v>
+        <v>380</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>-23</v>
+        <v>-99</v>
       </c>
       <c r="Y7">
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>37</v>
+        <v>-100</v>
       </c>
       <c r="AA7">
-        <v>342</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>40451</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>330</v>
+        <v>127</v>
       </c>
       <c r="D8">
-        <v>3997</v>
+        <v>3309</v>
       </c>
       <c r="E8">
-        <v>2635</v>
+        <v>2334</v>
       </c>
       <c r="F8">
-        <v>725</v>
+        <v>502</v>
       </c>
       <c r="G8">
-        <v>5850</v>
+        <v>7621</v>
       </c>
       <c r="H8">
-        <v>9437</v>
+        <v>10945</v>
       </c>
       <c r="I8">
-        <v>2356</v>
+        <v>2086</v>
       </c>
       <c r="J8">
-        <v>1995</v>
+        <v>80</v>
       </c>
       <c r="K8">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1291,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>3696</v>
+        <v>3670</v>
       </c>
       <c r="O8">
-        <v>6774</v>
+        <v>4975</v>
       </c>
       <c r="P8">
-        <v>2064</v>
+        <v>301</v>
       </c>
       <c r="Q8">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>40451</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>2663</v>
+        <v>5970</v>
       </c>
       <c r="U8">
-        <v>1523</v>
+        <v>3705</v>
       </c>
       <c r="V8">
-        <v>461</v>
+        <v>229</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>-170</v>
+        <v>-70</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA8">
-        <v>330</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>40543</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>269</v>
+        <v>75</v>
       </c>
       <c r="D9">
-        <v>3663</v>
+        <v>3652</v>
       </c>
       <c r="E9">
-        <v>2540</v>
+        <v>2307</v>
       </c>
       <c r="F9">
-        <v>605</v>
+        <v>442</v>
       </c>
       <c r="G9">
-        <v>5897</v>
+        <v>7666</v>
       </c>
       <c r="H9">
-        <v>9639</v>
+        <v>11082</v>
       </c>
       <c r="I9">
-        <v>2244</v>
+        <v>2236</v>
       </c>
       <c r="J9">
-        <v>1998</v>
+        <v>71</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>112</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,203 +1374,203 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3670</v>
+        <v>3719</v>
       </c>
       <c r="O9">
-        <v>6769</v>
+        <v>4983</v>
       </c>
       <c r="P9">
-        <v>2090</v>
+        <v>289</v>
       </c>
       <c r="Q9">
-        <v>111</v>
+        <v>-486</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>40543</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>2870</v>
+        <v>6099</v>
       </c>
       <c r="U9">
-        <v>1634</v>
+        <v>3219</v>
       </c>
       <c r="V9">
-        <v>414</v>
+        <v>287</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>-167</v>
+        <v>-9</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AA9">
-        <v>269</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>40633</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="D10">
-        <v>3767</v>
+        <v>3997</v>
       </c>
       <c r="E10">
-        <v>2425</v>
+        <v>2794</v>
       </c>
       <c r="F10">
-        <v>624</v>
+        <v>644</v>
       </c>
       <c r="G10">
-        <v>5227</v>
+        <v>6133</v>
       </c>
       <c r="H10">
-        <v>10176</v>
+        <v>9724</v>
       </c>
       <c r="I10">
-        <v>2278</v>
+        <v>2429</v>
       </c>
       <c r="J10">
-        <v>2324</v>
+        <v>2455</v>
       </c>
       <c r="K10">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>-57</v>
       </c>
       <c r="N10">
-        <v>3659</v>
+        <v>4013</v>
       </c>
       <c r="O10">
-        <v>7346</v>
+        <v>7817</v>
       </c>
       <c r="P10">
-        <v>2464</v>
+        <v>2751</v>
       </c>
       <c r="Q10">
-        <v>-529</v>
+        <v>-1586</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>40633</v>
       </c>
       <c r="S10">
-        <v>118000</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>2830</v>
+        <v>1907</v>
       </c>
       <c r="U10">
-        <v>1105</v>
+        <v>1633</v>
       </c>
       <c r="V10">
-        <v>310</v>
+        <v>156</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>255</v>
+        <v>-2204</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="AA10">
-        <v>136</v>
+        <v>291</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>40724</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="D11">
-        <v>4024</v>
+        <v>4213</v>
       </c>
       <c r="E11">
-        <v>2795</v>
+        <v>2865</v>
       </c>
       <c r="F11">
-        <v>685</v>
+        <v>695</v>
       </c>
       <c r="G11">
-        <v>5387</v>
+        <v>5957</v>
       </c>
       <c r="H11">
-        <v>10273</v>
+        <v>9627</v>
       </c>
       <c r="I11">
-        <v>2386</v>
+        <v>2560</v>
       </c>
       <c r="J11">
-        <v>2375</v>
+        <v>2056</v>
       </c>
       <c r="K11">
-        <v>17</v>
+        <v>130</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-1369</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>3674</v>
+        <v>4025</v>
       </c>
       <c r="O11">
-        <v>7376</v>
+        <v>7385</v>
       </c>
       <c r="P11">
-        <v>2478</v>
+        <v>2236</v>
       </c>
       <c r="Q11">
-        <v>-275</v>
+        <v>-311</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>40724</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2897</v>
+        <v>2242</v>
       </c>
       <c r="U11">
-        <v>830</v>
+        <v>1322</v>
       </c>
       <c r="V11">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="W11">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>-216</v>
+        <v>-553</v>
       </c>
       <c r="Y11">
         <v>0</v>
@@ -1558,42 +1579,42 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>276</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>40816</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>367</v>
+        <v>266</v>
       </c>
       <c r="D12">
-        <v>4240</v>
+        <v>3931</v>
       </c>
       <c r="E12">
-        <v>2868</v>
+        <v>2644</v>
       </c>
       <c r="F12">
-        <v>776</v>
+        <v>637</v>
       </c>
       <c r="G12">
-        <v>5633</v>
+        <v>5673</v>
       </c>
       <c r="H12">
-        <v>10551</v>
+        <v>9184</v>
       </c>
       <c r="I12">
-        <v>2501</v>
+        <v>2385</v>
       </c>
       <c r="J12">
-        <v>2367</v>
+        <v>2031</v>
       </c>
       <c r="K12">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1623,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>3809</v>
+        <v>3881</v>
       </c>
       <c r="O12">
-        <v>7509</v>
+        <v>7220</v>
       </c>
       <c r="P12">
-        <v>2426</v>
+        <v>2173</v>
       </c>
       <c r="Q12">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>40816</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>3042</v>
+        <v>1964</v>
       </c>
       <c r="U12">
-        <v>1001</v>
+        <v>1252</v>
       </c>
       <c r="V12">
-        <v>523</v>
+        <v>410</v>
       </c>
       <c r="W12">
-        <v>-53</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>-224</v>
+        <v>-151</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AA12">
-        <v>367</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>40908</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="D13">
-        <v>4017</v>
+        <v>3900</v>
       </c>
       <c r="E13">
-        <v>2856</v>
+        <v>2459</v>
       </c>
       <c r="F13">
-        <v>668</v>
+        <v>679</v>
       </c>
       <c r="G13">
-        <v>5787</v>
+        <v>5501</v>
       </c>
       <c r="H13">
-        <v>10811</v>
+        <v>9128</v>
       </c>
       <c r="I13">
-        <v>2504</v>
+        <v>2397</v>
       </c>
       <c r="J13">
-        <v>2359</v>
+        <v>1996</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,203 +1706,203 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3857</v>
+        <v>3712</v>
       </c>
       <c r="O13">
-        <v>7588</v>
+        <v>6957</v>
       </c>
       <c r="P13">
-        <v>2418</v>
+        <v>2103</v>
       </c>
       <c r="Q13">
-        <v>52</v>
+        <v>-23</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>40908</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>104000</v>
       </c>
       <c r="T13">
-        <v>3223</v>
+        <v>2171</v>
       </c>
       <c r="U13">
-        <v>1053</v>
+        <v>1363</v>
       </c>
       <c r="V13">
-        <v>398</v>
+        <v>468</v>
       </c>
       <c r="W13">
-        <v>-53</v>
+        <v>-93</v>
       </c>
       <c r="X13">
-        <v>-192</v>
+        <v>-286</v>
       </c>
       <c r="Y13">
         <v>0</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>-35</v>
       </c>
       <c r="AA13">
-        <v>271</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>40999</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>298</v>
+        <v>342</v>
       </c>
       <c r="D14">
-        <v>4182</v>
+        <v>4092</v>
       </c>
       <c r="E14">
-        <v>2662</v>
+        <v>2854</v>
       </c>
       <c r="F14">
-        <v>767</v>
+        <v>719</v>
       </c>
       <c r="G14">
-        <v>5752</v>
+        <v>6016</v>
       </c>
       <c r="H14">
-        <v>11047</v>
+        <v>9688</v>
       </c>
       <c r="I14">
-        <v>2595</v>
+        <v>2469</v>
       </c>
       <c r="J14">
-        <v>2351</v>
+        <v>1996</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>-18</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3894</v>
+        <v>3888</v>
       </c>
       <c r="O14">
-        <v>7613</v>
+        <v>7043</v>
       </c>
       <c r="P14">
-        <v>2412</v>
+        <v>2085</v>
       </c>
       <c r="Q14">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>40999</v>
       </c>
       <c r="S14">
-        <v>117000</v>
+        <v>0</v>
       </c>
       <c r="T14">
-        <v>3434</v>
+        <v>2645</v>
       </c>
       <c r="U14">
-        <v>1389</v>
+        <v>1412</v>
       </c>
       <c r="V14">
-        <v>680</v>
+        <v>293</v>
       </c>
       <c r="W14">
-        <v>-52</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>-190</v>
+        <v>-23</v>
       </c>
       <c r="Y14">
         <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AA14">
-        <v>298</v>
+        <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>41090</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="D15">
-        <v>3897</v>
+        <v>3997</v>
       </c>
       <c r="E15">
-        <v>3066</v>
+        <v>2635</v>
       </c>
       <c r="F15">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="G15">
-        <v>5880</v>
+        <v>5850</v>
       </c>
       <c r="H15">
-        <v>11182</v>
+        <v>9437</v>
       </c>
       <c r="I15">
-        <v>2681</v>
+        <v>2356</v>
       </c>
       <c r="J15">
-        <v>2418</v>
+        <v>1995</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>-690</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>3930</v>
+        <v>3696</v>
       </c>
       <c r="O15">
-        <v>7688</v>
+        <v>6774</v>
       </c>
       <c r="P15">
-        <v>2449</v>
+        <v>2064</v>
       </c>
       <c r="Q15">
-        <v>-411</v>
+        <v>111</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>41090</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>3494</v>
+        <v>2663</v>
       </c>
       <c r="U15">
-        <v>978</v>
+        <v>1523</v>
       </c>
       <c r="V15">
-        <v>136</v>
+        <v>461</v>
       </c>
       <c r="W15">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="X15">
-        <v>-241</v>
+        <v>-170</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -1890,42 +1911,42 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>320</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>41182</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>382</v>
+        <v>269</v>
       </c>
       <c r="D16">
-        <v>4062</v>
+        <v>3663</v>
       </c>
       <c r="E16">
-        <v>3049</v>
+        <v>2540</v>
       </c>
       <c r="F16">
-        <v>802</v>
+        <v>605</v>
       </c>
       <c r="G16">
-        <v>6082</v>
+        <v>5897</v>
       </c>
       <c r="H16">
-        <v>11452</v>
+        <v>9639</v>
       </c>
       <c r="I16">
-        <v>2696</v>
+        <v>2244</v>
       </c>
       <c r="J16">
-        <v>2420</v>
+        <v>1998</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,37 +1955,37 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3998</v>
+        <v>3670</v>
       </c>
       <c r="O16">
-        <v>7768</v>
+        <v>6769</v>
       </c>
       <c r="P16">
-        <v>2452</v>
+        <v>2090</v>
       </c>
       <c r="Q16">
-        <v>188</v>
+        <v>111</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>41182</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>3684</v>
+        <v>2870</v>
       </c>
       <c r="U16">
-        <v>1166</v>
+        <v>1634</v>
       </c>
       <c r="V16">
-        <v>627</v>
+        <v>414</v>
       </c>
       <c r="W16">
-        <v>-76</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>-278</v>
+        <v>-167</v>
       </c>
       <c r="Y16">
         <v>0</v>
@@ -1973,42 +1994,42 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>382</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>41274</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>305</v>
+        <v>136</v>
       </c>
       <c r="D17">
-        <v>3762</v>
+        <v>3767</v>
       </c>
       <c r="E17">
-        <v>2839</v>
+        <v>2425</v>
       </c>
       <c r="F17">
-        <v>724</v>
+        <v>624</v>
       </c>
       <c r="G17">
-        <v>5682</v>
+        <v>5227</v>
       </c>
       <c r="H17">
-        <v>10923</v>
+        <v>10176</v>
       </c>
       <c r="I17">
-        <v>2521</v>
+        <v>2278</v>
       </c>
       <c r="J17">
-        <v>2417</v>
+        <v>2324</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,37 +2038,37 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3844</v>
+        <v>3659</v>
       </c>
       <c r="O17">
-        <v>7544</v>
+        <v>7346</v>
       </c>
       <c r="P17">
-        <v>2454</v>
+        <v>2464</v>
       </c>
       <c r="Q17">
-        <v>-140</v>
+        <v>-529</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>41274</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>118000</v>
       </c>
       <c r="T17">
-        <v>3379</v>
+        <v>2830</v>
       </c>
       <c r="U17">
-        <v>1026</v>
+        <v>1105</v>
       </c>
       <c r="V17">
-        <v>499</v>
+        <v>310</v>
       </c>
       <c r="W17">
-        <v>-75</v>
+        <v>0</v>
       </c>
       <c r="X17">
-        <v>-430</v>
+        <v>255</v>
       </c>
       <c r="Y17">
         <v>0</v>
@@ -2056,164 +2077,164 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>305</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>41364</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="D18">
-        <v>3778</v>
+        <v>4024</v>
       </c>
       <c r="E18">
-        <v>2400</v>
+        <v>2795</v>
       </c>
       <c r="F18">
-        <v>774</v>
+        <v>685</v>
       </c>
       <c r="G18">
-        <v>5224</v>
+        <v>5387</v>
       </c>
       <c r="H18">
-        <v>10721</v>
+        <v>10273</v>
       </c>
       <c r="I18">
-        <v>2278</v>
+        <v>2386</v>
       </c>
       <c r="J18">
-        <v>2392</v>
+        <v>2375</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>-1369</v>
       </c>
       <c r="N18">
-        <v>3889</v>
+        <v>3674</v>
       </c>
       <c r="O18">
-        <v>7708</v>
+        <v>7376</v>
       </c>
       <c r="P18">
-        <v>2426</v>
+        <v>2478</v>
       </c>
       <c r="Q18">
-        <v>-122</v>
+        <v>-275</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>41364</v>
       </c>
       <c r="S18">
-        <v>127000</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>3013</v>
+        <v>2897</v>
       </c>
       <c r="U18">
-        <v>859</v>
+        <v>830</v>
       </c>
       <c r="V18">
-        <v>873</v>
+        <v>149</v>
       </c>
       <c r="W18">
-        <v>-73</v>
+        <v>-53</v>
       </c>
       <c r="X18">
-        <v>-449</v>
+        <v>-216</v>
       </c>
       <c r="Y18">
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>-5</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>344</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>41455</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>209</v>
+        <v>367</v>
       </c>
       <c r="D19">
-        <v>3797</v>
+        <v>4240</v>
       </c>
       <c r="E19">
-        <v>2677</v>
+        <v>2868</v>
       </c>
       <c r="F19">
-        <v>743</v>
+        <v>776</v>
       </c>
       <c r="G19">
-        <v>5687</v>
+        <v>5633</v>
       </c>
       <c r="H19">
-        <v>10464</v>
+        <v>10551</v>
       </c>
       <c r="I19">
-        <v>2287</v>
+        <v>2501</v>
       </c>
       <c r="J19">
-        <v>2673</v>
+        <v>2367</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-546</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>3818</v>
+        <v>3809</v>
       </c>
       <c r="O19">
-        <v>7801</v>
+        <v>7509</v>
       </c>
       <c r="P19">
-        <v>2717</v>
+        <v>2426</v>
       </c>
       <c r="Q19">
-        <v>-303</v>
+        <v>171</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>41455</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2663</v>
+        <v>3042</v>
       </c>
       <c r="U19">
-        <v>558</v>
+        <v>1001</v>
       </c>
       <c r="V19">
-        <v>135</v>
+        <v>523</v>
       </c>
       <c r="W19">
-        <v>-73</v>
+        <v>-53</v>
       </c>
       <c r="X19">
-        <v>-167</v>
+        <v>-224</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -2222,39 +2243,39 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>209</v>
+        <v>367</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>41547</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>645</v>
+        <v>271</v>
       </c>
       <c r="D20">
-        <v>3858</v>
+        <v>4017</v>
       </c>
       <c r="E20">
-        <v>2700</v>
+        <v>2856</v>
       </c>
       <c r="F20">
-        <v>786</v>
+        <v>668</v>
       </c>
       <c r="G20">
-        <v>5934</v>
+        <v>5787</v>
       </c>
       <c r="H20">
-        <v>10809</v>
+        <v>10811</v>
       </c>
       <c r="I20">
-        <v>2386</v>
+        <v>2504</v>
       </c>
       <c r="J20">
-        <v>2693</v>
+        <v>2359</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2266,81 +2287,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3772</v>
+        <v>3857</v>
       </c>
       <c r="O20">
-        <v>7788</v>
+        <v>7588</v>
       </c>
       <c r="P20">
-        <v>2736</v>
+        <v>2418</v>
       </c>
       <c r="Q20">
-        <v>634</v>
+        <v>52</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>41547</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>3021</v>
+        <v>3223</v>
       </c>
       <c r="U20">
-        <v>1171</v>
+        <v>1053</v>
       </c>
       <c r="V20">
-        <v>534</v>
+        <v>398</v>
       </c>
       <c r="W20">
-        <v>-72</v>
+        <v>-53</v>
       </c>
       <c r="X20">
-        <v>-377</v>
+        <v>-192</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>-23</v>
+        <v>0</v>
       </c>
       <c r="AA20">
-        <v>645</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>41639</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="D21">
-        <v>3631</v>
+        <v>4182</v>
       </c>
       <c r="E21">
-        <v>2615</v>
+        <v>2662</v>
       </c>
       <c r="F21">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="G21">
-        <v>5054</v>
+        <v>5752</v>
       </c>
       <c r="H21">
-        <v>10792</v>
+        <v>11047</v>
       </c>
       <c r="I21">
-        <v>2327</v>
+        <v>2595</v>
       </c>
       <c r="J21">
-        <v>2698</v>
+        <v>2351</v>
       </c>
       <c r="K21">
-        <v>302</v>
+        <v>1</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,37 +2370,37 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4028</v>
+        <v>3894</v>
       </c>
       <c r="O21">
-        <v>8018</v>
+        <v>7613</v>
       </c>
       <c r="P21">
-        <v>3122</v>
+        <v>2412</v>
       </c>
       <c r="Q21">
-        <v>-776</v>
+        <v>336</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>41639</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>117000</v>
       </c>
       <c r="T21">
-        <v>2774</v>
+        <v>3434</v>
       </c>
       <c r="U21">
-        <v>434</v>
+        <v>1389</v>
       </c>
       <c r="V21">
-        <v>339</v>
+        <v>680</v>
       </c>
       <c r="W21">
-        <v>-71</v>
+        <v>-52</v>
       </c>
       <c r="X21">
-        <v>-133</v>
+        <v>-190</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -2388,81 +2409,81 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>404</v>
+        <v>298</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>41729</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>192</v>
+        <v>320</v>
       </c>
       <c r="D22">
-        <v>3879</v>
+        <v>3897</v>
       </c>
       <c r="E22">
-        <v>2750</v>
+        <v>3066</v>
       </c>
       <c r="F22">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="G22">
-        <v>5121</v>
+        <v>5880</v>
       </c>
       <c r="H22">
-        <v>11973</v>
+        <v>11182</v>
       </c>
       <c r="I22">
-        <v>2541</v>
+        <v>2681</v>
       </c>
       <c r="J22">
-        <v>3956</v>
+        <v>2418</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>-690</v>
       </c>
       <c r="N22">
-        <v>3927</v>
+        <v>3930</v>
       </c>
       <c r="O22">
-        <v>9240</v>
+        <v>7688</v>
       </c>
       <c r="P22">
-        <v>4008</v>
+        <v>2449</v>
       </c>
       <c r="Q22">
-        <v>120</v>
+        <v>-411</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>41729</v>
       </c>
       <c r="S22">
-        <v>139000</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>2733</v>
+        <v>3494</v>
       </c>
       <c r="U22">
-        <v>535</v>
+        <v>978</v>
       </c>
       <c r="V22">
-        <v>695</v>
+        <v>136</v>
       </c>
       <c r="W22">
-        <v>-70</v>
+        <v>-77</v>
       </c>
       <c r="X22">
-        <v>393</v>
+        <v>-241</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -2471,42 +2492,42 @@
         <v>0</v>
       </c>
       <c r="AA22">
-        <v>192</v>
+        <v>320</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>41820</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>425</v>
+        <v>382</v>
       </c>
       <c r="D23">
-        <v>4051</v>
+        <v>4062</v>
       </c>
       <c r="E23">
-        <v>2934</v>
+        <v>3049</v>
       </c>
       <c r="F23">
-        <v>789</v>
+        <v>802</v>
       </c>
       <c r="G23">
-        <v>5082</v>
+        <v>6082</v>
       </c>
       <c r="H23">
-        <v>12071</v>
+        <v>11452</v>
       </c>
       <c r="I23">
-        <v>2514</v>
+        <v>2696</v>
       </c>
       <c r="J23">
-        <v>3985</v>
+        <v>2420</v>
       </c>
       <c r="K23">
-        <v>315</v>
+        <v>1</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -2515,81 +2536,81 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4061</v>
+        <v>3998</v>
       </c>
       <c r="O23">
-        <v>9427</v>
+        <v>7768</v>
       </c>
       <c r="P23">
-        <v>4353</v>
+        <v>2452</v>
       </c>
       <c r="Q23">
-        <v>-116</v>
+        <v>188</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>41820</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2644</v>
+        <v>3684</v>
       </c>
       <c r="U23">
-        <v>463</v>
+        <v>1166</v>
       </c>
       <c r="V23">
-        <v>268</v>
+        <v>627</v>
       </c>
       <c r="W23">
-        <v>-80</v>
+        <v>-76</v>
       </c>
       <c r="X23">
-        <v>-166</v>
+        <v>-278</v>
       </c>
       <c r="Y23">
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>425</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>41912</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="D24">
-        <v>4206</v>
+        <v>3762</v>
       </c>
       <c r="E24">
-        <v>2900</v>
+        <v>2839</v>
       </c>
       <c r="F24">
-        <v>882</v>
+        <v>724</v>
       </c>
       <c r="G24">
-        <v>5051</v>
+        <v>5682</v>
       </c>
       <c r="H24">
-        <v>11957</v>
+        <v>10923</v>
       </c>
       <c r="I24">
-        <v>2527</v>
+        <v>2521</v>
       </c>
       <c r="J24">
-        <v>3969</v>
+        <v>2417</v>
       </c>
       <c r="K24">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,37 +2619,37 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3899</v>
+        <v>3844</v>
       </c>
       <c r="O24">
-        <v>9187</v>
+        <v>7544</v>
       </c>
       <c r="P24">
-        <v>4066</v>
+        <v>2454</v>
       </c>
       <c r="Q24">
-        <v>-26</v>
+        <v>-140</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>41912</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2770</v>
+        <v>3379</v>
       </c>
       <c r="U24">
-        <v>437</v>
+        <v>1026</v>
       </c>
       <c r="V24">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="W24">
-        <v>-79</v>
+        <v>-75</v>
       </c>
       <c r="X24">
-        <v>-429</v>
+        <v>-430</v>
       </c>
       <c r="Y24">
         <v>0</v>
@@ -2637,39 +2658,39 @@
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>258</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>42004</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>293</v>
+        <v>344</v>
       </c>
       <c r="D25">
-        <v>4091</v>
+        <v>3778</v>
       </c>
       <c r="E25">
-        <v>2983</v>
+        <v>2400</v>
       </c>
       <c r="F25">
-        <v>839</v>
+        <v>774</v>
       </c>
       <c r="G25">
-        <v>5147</v>
+        <v>5224</v>
       </c>
       <c r="H25">
-        <v>12122</v>
+        <v>10721</v>
       </c>
       <c r="I25">
-        <v>2544</v>
+        <v>2278</v>
       </c>
       <c r="J25">
-        <v>4038</v>
+        <v>2392</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2681,78 +2702,78 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3841</v>
+        <v>3889</v>
       </c>
       <c r="O25">
-        <v>9201</v>
+        <v>7708</v>
       </c>
       <c r="P25">
-        <v>4074</v>
+        <v>2426</v>
       </c>
       <c r="Q25">
-        <v>-42</v>
+        <v>-122</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>42004</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>127000</v>
       </c>
       <c r="T25">
-        <v>2921</v>
+        <v>3013</v>
       </c>
       <c r="U25">
-        <v>395</v>
+        <v>859</v>
       </c>
       <c r="V25">
-        <v>415</v>
+        <v>873</v>
       </c>
       <c r="W25">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="X25">
-        <v>-265</v>
+        <v>-449</v>
       </c>
       <c r="Y25">
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="AA25">
-        <v>293</v>
+        <v>344</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>42094</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>281</v>
+        <v>209</v>
       </c>
       <c r="D26">
-        <v>-74</v>
+        <v>3797</v>
       </c>
       <c r="E26">
-        <v>2130</v>
+        <v>2677</v>
       </c>
       <c r="F26">
-        <v>238</v>
+        <v>743</v>
       </c>
       <c r="G26">
-        <v>5419</v>
+        <v>5687</v>
       </c>
       <c r="H26">
-        <v>12292</v>
+        <v>10464</v>
       </c>
       <c r="I26">
-        <v>1820</v>
+        <v>2287</v>
       </c>
       <c r="J26">
-        <v>3953</v>
+        <v>2673</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2761,40 +2782,40 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>-546</v>
       </c>
       <c r="N26">
-        <v>4148</v>
+        <v>3818</v>
       </c>
       <c r="O26">
-        <v>9529</v>
+        <v>7801</v>
       </c>
       <c r="P26">
-        <v>3963</v>
+        <v>2717</v>
       </c>
       <c r="Q26">
-        <v>443</v>
+        <v>-303</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>42094</v>
       </c>
       <c r="S26">
-        <v>145000</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2763</v>
+        <v>2663</v>
       </c>
       <c r="U26">
-        <v>737</v>
+        <v>558</v>
       </c>
       <c r="V26">
-        <v>683</v>
+        <v>135</v>
       </c>
       <c r="W26">
-        <v>-79</v>
+        <v>-73</v>
       </c>
       <c r="X26">
-        <v>-221</v>
+        <v>-167</v>
       </c>
       <c r="Y26">
         <v>0</v>
@@ -2803,125 +2824,125 @@
         <v>0</v>
       </c>
       <c r="AA26">
-        <v>281</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>42185</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>335</v>
+        <v>645</v>
       </c>
       <c r="D27">
-        <v>3143</v>
+        <v>3858</v>
       </c>
       <c r="E27">
-        <v>3132</v>
+        <v>2700</v>
       </c>
       <c r="F27">
-        <v>600</v>
+        <v>786</v>
       </c>
       <c r="G27">
-        <v>5487</v>
+        <v>5934</v>
       </c>
       <c r="H27">
-        <v>12497</v>
+        <v>10809</v>
       </c>
       <c r="I27">
-        <v>2549</v>
+        <v>2386</v>
       </c>
       <c r="J27">
-        <v>3991</v>
+        <v>2693</v>
       </c>
       <c r="K27">
         <v>0</v>
       </c>
       <c r="L27">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>4092</v>
+        <v>3772</v>
       </c>
       <c r="O27">
-        <v>9548</v>
+        <v>7788</v>
       </c>
       <c r="P27">
-        <v>3999</v>
+        <v>2736</v>
       </c>
       <c r="Q27">
-        <v>-291</v>
+        <v>634</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>42185</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2949</v>
+        <v>3021</v>
       </c>
       <c r="U27">
-        <v>547</v>
+        <v>1171</v>
       </c>
       <c r="V27">
-        <v>290</v>
+        <v>534</v>
       </c>
       <c r="W27">
-        <v>-78</v>
+        <v>-72</v>
       </c>
       <c r="X27">
-        <v>-332</v>
+        <v>-377</v>
       </c>
       <c r="Y27">
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>-15</v>
+        <v>-23</v>
       </c>
       <c r="AA27">
-        <v>335</v>
+        <v>645</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>42277</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="D28">
-        <v>3153</v>
+        <v>3631</v>
       </c>
       <c r="E28">
-        <v>3127</v>
+        <v>2615</v>
       </c>
       <c r="F28">
-        <v>655</v>
+        <v>769</v>
       </c>
       <c r="G28">
-        <v>5849</v>
+        <v>5054</v>
       </c>
       <c r="H28">
-        <v>13056</v>
+        <v>10792</v>
       </c>
       <c r="I28">
-        <v>2603</v>
+        <v>2327</v>
       </c>
       <c r="J28">
-        <v>4059</v>
+        <v>2698</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,78 +2951,78 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>4170</v>
+        <v>4028</v>
       </c>
       <c r="O28">
-        <v>9771</v>
+        <v>8018</v>
       </c>
       <c r="P28">
-        <v>4072</v>
+        <v>3122</v>
       </c>
       <c r="Q28">
-        <v>245</v>
+        <v>-776</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>42277</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>3285</v>
+        <v>2774</v>
       </c>
       <c r="U28">
-        <v>792</v>
+        <v>434</v>
       </c>
       <c r="V28">
-        <v>599</v>
+        <v>339</v>
       </c>
       <c r="W28">
-        <v>-78</v>
+        <v>-71</v>
       </c>
       <c r="X28">
-        <v>-181</v>
+        <v>-133</v>
       </c>
       <c r="Y28">
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>-10</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>369</v>
+        <v>404</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>42369</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>395</v>
+        <v>192</v>
       </c>
       <c r="D29">
-        <v>3148</v>
+        <v>3879</v>
       </c>
       <c r="E29">
-        <v>3225</v>
+        <v>2750</v>
       </c>
       <c r="F29">
-        <v>651</v>
+        <v>775</v>
       </c>
       <c r="G29">
-        <v>6710</v>
+        <v>5121</v>
       </c>
       <c r="H29">
-        <v>14166</v>
+        <v>11973</v>
       </c>
       <c r="I29">
-        <v>2745</v>
+        <v>2541</v>
       </c>
       <c r="J29">
-        <v>4884</v>
+        <v>3956</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3013,81 +3034,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>4143</v>
+        <v>3927</v>
       </c>
       <c r="O29">
-        <v>10552</v>
+        <v>9240</v>
       </c>
       <c r="P29">
-        <v>4899</v>
+        <v>4008</v>
       </c>
       <c r="Q29">
-        <v>561</v>
+        <v>120</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>42369</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>139000</v>
       </c>
       <c r="T29">
-        <v>3614</v>
+        <v>2733</v>
       </c>
       <c r="U29">
-        <v>557</v>
+        <v>535</v>
       </c>
       <c r="V29">
-        <v>151</v>
+        <v>695</v>
       </c>
       <c r="W29">
-        <v>-77</v>
+        <v>-70</v>
       </c>
       <c r="X29">
-        <v>618</v>
+        <v>393</v>
       </c>
       <c r="Y29">
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="AA29">
-        <v>395</v>
+        <v>192</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>42460</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>256</v>
+        <v>425</v>
       </c>
       <c r="D30">
-        <v>3440</v>
+        <v>4051</v>
       </c>
       <c r="E30">
-        <v>2440</v>
+        <v>2934</v>
       </c>
       <c r="F30">
-        <v>717</v>
+        <v>789</v>
       </c>
       <c r="G30">
-        <v>5641</v>
+        <v>5082</v>
       </c>
       <c r="H30">
-        <v>12169</v>
+        <v>12071</v>
       </c>
       <c r="I30">
-        <v>2227</v>
+        <v>2514</v>
       </c>
       <c r="J30">
-        <v>4132</v>
+        <v>3985</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,81 +3117,81 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>3540</v>
+        <v>4061</v>
       </c>
       <c r="O30">
-        <v>8652</v>
+        <v>9427</v>
       </c>
       <c r="P30">
-        <v>4149</v>
+        <v>4353</v>
       </c>
       <c r="Q30">
-        <v>243</v>
+        <v>-116</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>42460</v>
       </c>
       <c r="S30">
-        <v>129000</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>3517</v>
+        <v>2644</v>
       </c>
       <c r="U30">
-        <v>1596</v>
+        <v>463</v>
       </c>
       <c r="V30">
-        <v>428</v>
+        <v>268</v>
       </c>
       <c r="W30">
-        <v>-77</v>
+        <v>-80</v>
       </c>
       <c r="X30">
-        <v>351</v>
+        <v>-166</v>
       </c>
       <c r="Y30">
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>-3</v>
       </c>
       <c r="AA30">
-        <v>256</v>
+        <v>425</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>42551</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D31">
-        <v>3630</v>
+        <v>4206</v>
       </c>
       <c r="E31">
-        <v>2646</v>
+        <v>2900</v>
       </c>
       <c r="F31">
-        <v>683</v>
+        <v>882</v>
       </c>
       <c r="G31">
-        <v>5926</v>
+        <v>5051</v>
       </c>
       <c r="H31">
-        <v>12560</v>
+        <v>11957</v>
       </c>
       <c r="I31">
-        <v>2282</v>
+        <v>2527</v>
       </c>
       <c r="J31">
-        <v>4163</v>
+        <v>3969</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="L31">
         <v>0</v>
@@ -3179,37 +3200,37 @@
         <v>0</v>
       </c>
       <c r="N31">
-        <v>3708</v>
+        <v>3899</v>
       </c>
       <c r="O31">
-        <v>8862</v>
+        <v>9187</v>
       </c>
       <c r="P31">
-        <v>4223</v>
+        <v>4066</v>
       </c>
       <c r="Q31">
-        <v>-251</v>
+        <v>-26</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>42551</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>3698</v>
+        <v>2770</v>
       </c>
       <c r="U31">
-        <v>1345</v>
+        <v>437</v>
       </c>
       <c r="V31">
-        <v>155</v>
+        <v>575</v>
       </c>
       <c r="W31">
-        <v>-59</v>
+        <v>-79</v>
       </c>
       <c r="X31">
-        <v>-205</v>
+        <v>-429</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -3218,39 +3239,39 @@
         <v>0</v>
       </c>
       <c r="AA31">
-        <v>307</v>
+        <v>258</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>42643</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D32">
-        <v>3684</v>
+        <v>4091</v>
       </c>
       <c r="E32">
-        <v>2598</v>
+        <v>2983</v>
       </c>
       <c r="F32">
-        <v>727</v>
+        <v>839</v>
       </c>
       <c r="G32">
-        <v>5340</v>
+        <v>5147</v>
       </c>
       <c r="H32">
-        <v>12316</v>
+        <v>12122</v>
       </c>
       <c r="I32">
-        <v>2307</v>
+        <v>2544</v>
       </c>
       <c r="J32">
-        <v>4067</v>
+        <v>4038</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -3262,37 +3283,37 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>3438</v>
+        <v>3841</v>
       </c>
       <c r="O32">
-        <v>8558</v>
+        <v>9201</v>
       </c>
       <c r="P32">
-        <v>4089</v>
+        <v>4074</v>
       </c>
       <c r="Q32">
-        <v>-375</v>
+        <v>-42</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>42643</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3758</v>
+        <v>2921</v>
       </c>
       <c r="U32">
-        <v>970</v>
+        <v>395</v>
       </c>
       <c r="V32">
-        <v>545</v>
+        <v>415</v>
       </c>
       <c r="W32">
-        <v>-58</v>
+        <v>-79</v>
       </c>
       <c r="X32">
-        <v>-116</v>
+        <v>-265</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -3301,39 +3322,39 @@
         <v>0</v>
       </c>
       <c r="AA32">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>42735</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>222</v>
+        <v>281</v>
       </c>
       <c r="D33">
-        <v>3485</v>
+        <v>-74</v>
       </c>
       <c r="E33">
-        <v>2635</v>
+        <v>2130</v>
       </c>
       <c r="F33">
-        <v>652</v>
+        <v>238</v>
       </c>
       <c r="G33">
-        <v>5204</v>
+        <v>5419</v>
       </c>
       <c r="H33">
-        <v>12327</v>
+        <v>12292</v>
       </c>
       <c r="I33">
-        <v>2254</v>
+        <v>1820</v>
       </c>
       <c r="J33">
-        <v>4084</v>
+        <v>3953</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -3345,37 +3366,37 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>3387</v>
+        <v>4148</v>
       </c>
       <c r="O33">
-        <v>8518</v>
+        <v>9529</v>
       </c>
       <c r="P33">
-        <v>4108</v>
+        <v>3963</v>
       </c>
       <c r="Q33">
-        <v>-199</v>
+        <v>443</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>42735</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>145000</v>
       </c>
       <c r="T33">
-        <v>3809</v>
+        <v>2763</v>
       </c>
       <c r="U33">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="V33">
-        <v>171</v>
+        <v>683</v>
       </c>
       <c r="W33">
-        <v>-58</v>
+        <v>-79</v>
       </c>
       <c r="X33">
-        <v>-161</v>
+        <v>-221</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -3384,122 +3405,122 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>222</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>42825</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>247</v>
+        <v>335</v>
       </c>
       <c r="D34">
-        <v>3636</v>
+        <v>3143</v>
       </c>
       <c r="E34">
-        <v>2487</v>
+        <v>3132</v>
       </c>
       <c r="F34">
-        <v>671</v>
+        <v>600</v>
       </c>
       <c r="G34">
-        <v>4777</v>
+        <v>5487</v>
       </c>
       <c r="H34">
-        <v>12480</v>
+        <v>12497</v>
       </c>
       <c r="I34">
-        <v>2334</v>
+        <v>2549</v>
       </c>
       <c r="J34">
-        <v>4038</v>
+        <v>3991</v>
       </c>
       <c r="K34">
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="M34">
         <v>0</v>
       </c>
       <c r="N34">
-        <v>3694</v>
+        <v>4092</v>
       </c>
       <c r="O34">
-        <v>8810</v>
+        <v>9548</v>
       </c>
       <c r="P34">
-        <v>4344</v>
+        <v>3999</v>
       </c>
       <c r="Q34">
-        <v>-204</v>
+        <v>-291</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>42825</v>
       </c>
       <c r="S34">
-        <v>143000</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>3670</v>
+        <v>2949</v>
       </c>
       <c r="U34">
-        <v>567</v>
+        <v>547</v>
       </c>
       <c r="V34">
-        <v>757</v>
+        <v>290</v>
       </c>
       <c r="W34">
-        <v>-58</v>
+        <v>-78</v>
       </c>
       <c r="X34">
-        <v>-73</v>
+        <v>-332</v>
       </c>
       <c r="Y34">
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>-16</v>
+        <v>-15</v>
       </c>
       <c r="AA34">
-        <v>247</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>42916</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>240</v>
+        <v>369</v>
       </c>
       <c r="D35">
-        <v>3575</v>
+        <v>3153</v>
       </c>
       <c r="E35">
-        <v>2736</v>
+        <v>3127</v>
       </c>
       <c r="F35">
-        <v>642</v>
+        <v>655</v>
       </c>
       <c r="G35">
-        <v>4819</v>
+        <v>5849</v>
       </c>
       <c r="H35">
-        <v>13019</v>
+        <v>13056</v>
       </c>
       <c r="I35">
-        <v>2340</v>
+        <v>2603</v>
       </c>
       <c r="J35">
-        <v>3979</v>
+        <v>4059</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -3508,81 +3529,81 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-659</v>
+        <v>0</v>
       </c>
       <c r="N35">
-        <v>4014</v>
+        <v>4170</v>
       </c>
       <c r="O35">
-        <v>9384</v>
+        <v>9771</v>
       </c>
       <c r="P35">
-        <v>4980</v>
+        <v>4072</v>
       </c>
       <c r="Q35">
-        <v>-246</v>
+        <v>245</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>42916</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>3635</v>
+        <v>3285</v>
       </c>
       <c r="U35">
-        <v>321</v>
+        <v>792</v>
       </c>
       <c r="V35">
-        <v>84</v>
+        <v>599</v>
       </c>
       <c r="W35">
-        <v>-57</v>
+        <v>-78</v>
       </c>
       <c r="X35">
-        <v>-99</v>
+        <v>-181</v>
       </c>
       <c r="Y35">
-        <v>366</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="AA35">
-        <v>240</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>43008</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>274</v>
+        <v>395</v>
       </c>
       <c r="D36">
-        <v>3627</v>
+        <v>3148</v>
       </c>
       <c r="E36">
-        <v>2679</v>
+        <v>3225</v>
       </c>
       <c r="F36">
-        <v>698</v>
+        <v>651</v>
       </c>
       <c r="G36">
-        <v>4854</v>
+        <v>6710</v>
       </c>
       <c r="H36">
-        <v>13108</v>
+        <v>14166</v>
       </c>
       <c r="I36">
-        <v>2284</v>
+        <v>2745</v>
       </c>
       <c r="J36">
-        <v>3982</v>
+        <v>4884</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -3594,78 +3615,78 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3991</v>
+        <v>4143</v>
       </c>
       <c r="O36">
-        <v>9376</v>
+        <v>10552</v>
       </c>
       <c r="P36">
-        <v>4956</v>
+        <v>4899</v>
       </c>
       <c r="Q36">
-        <v>59</v>
+        <v>561</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>43008</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>3732</v>
+        <v>3614</v>
       </c>
       <c r="U36">
-        <v>365</v>
+        <v>557</v>
       </c>
       <c r="V36">
-        <v>512</v>
+        <v>151</v>
       </c>
       <c r="W36">
-        <v>-57</v>
+        <v>-77</v>
       </c>
       <c r="X36">
-        <v>-216</v>
+        <v>618</v>
       </c>
       <c r="Y36">
-        <v>365</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>-25</v>
       </c>
       <c r="AA36">
-        <v>274</v>
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>43100</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D37">
-        <v>3559</v>
+        <v>3440</v>
       </c>
       <c r="E37">
-        <v>2661</v>
+        <v>2440</v>
       </c>
       <c r="F37">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="G37">
-        <v>5385</v>
+        <v>5641</v>
       </c>
       <c r="H37">
-        <v>12939</v>
+        <v>12169</v>
       </c>
       <c r="I37">
-        <v>2232</v>
+        <v>2227</v>
       </c>
       <c r="J37">
-        <v>3920</v>
+        <v>4132</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -3677,78 +3698,78 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>3875</v>
+        <v>3540</v>
       </c>
       <c r="O37">
-        <v>9158</v>
+        <v>8652</v>
       </c>
       <c r="P37">
-        <v>4804</v>
+        <v>4149</v>
       </c>
       <c r="Q37">
-        <v>-23</v>
+        <v>243</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>43100</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>129000</v>
       </c>
       <c r="T37">
-        <v>3781</v>
+        <v>3517</v>
       </c>
       <c r="U37">
-        <v>341</v>
+        <v>1596</v>
       </c>
       <c r="V37">
-        <v>325</v>
+        <v>428</v>
       </c>
       <c r="W37">
-        <v>-56</v>
+        <v>-77</v>
       </c>
       <c r="X37">
-        <v>-174</v>
+        <v>351</v>
       </c>
       <c r="Y37">
-        <v>348</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>43190</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="D38">
-        <v>3596</v>
+        <v>3630</v>
       </c>
       <c r="E38">
-        <v>2569</v>
+        <v>2646</v>
       </c>
       <c r="F38">
-        <v>717</v>
+        <v>683</v>
       </c>
       <c r="G38">
-        <v>5319</v>
+        <v>5926</v>
       </c>
       <c r="H38">
-        <v>13459</v>
+        <v>12560</v>
       </c>
       <c r="I38">
-        <v>2463</v>
+        <v>2282</v>
       </c>
       <c r="J38">
-        <v>3953</v>
+        <v>4163</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -3760,161 +3781,161 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>4054</v>
+        <v>3708</v>
       </c>
       <c r="O38">
-        <v>9448</v>
+        <v>8862</v>
       </c>
       <c r="P38">
-        <v>4787</v>
+        <v>4223</v>
       </c>
       <c r="Q38">
-        <v>71</v>
+        <v>-251</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>43190</v>
       </c>
       <c r="S38">
-        <v>141000</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>4011</v>
+        <v>3698</v>
       </c>
       <c r="U38">
-        <v>412</v>
+        <v>1345</v>
       </c>
       <c r="V38">
-        <v>703</v>
+        <v>155</v>
       </c>
       <c r="W38">
-        <v>-56</v>
+        <v>-59</v>
       </c>
       <c r="X38">
-        <v>-160</v>
+        <v>-205</v>
       </c>
       <c r="Y38">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>230</v>
+        <v>307</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>43281</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>1572</v>
+        <v>291</v>
       </c>
       <c r="D39">
-        <v>3226</v>
+        <v>3684</v>
       </c>
       <c r="E39">
-        <v>2308</v>
+        <v>2598</v>
       </c>
       <c r="F39">
-        <v>528</v>
+        <v>727</v>
       </c>
       <c r="G39">
-        <v>6190</v>
+        <v>5340</v>
       </c>
       <c r="H39">
-        <v>16167</v>
+        <v>12316</v>
       </c>
       <c r="I39">
-        <v>2243</v>
+        <v>2307</v>
       </c>
       <c r="J39">
-        <v>5947</v>
+        <v>4067</v>
       </c>
       <c r="K39">
         <v>0</v>
       </c>
       <c r="L39">
-        <v>-29</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
       </c>
       <c r="N39">
-        <v>3655</v>
+        <v>3438</v>
       </c>
       <c r="O39">
-        <v>11014</v>
+        <v>8558</v>
       </c>
       <c r="P39">
-        <v>6625</v>
+        <v>4089</v>
       </c>
       <c r="Q39">
-        <v>1658</v>
+        <v>-375</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>43281</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>5153</v>
+        <v>3758</v>
       </c>
       <c r="U39">
-        <v>2055</v>
+        <v>970</v>
       </c>
       <c r="V39">
-        <v>161</v>
+        <v>545</v>
       </c>
       <c r="W39">
-        <v>-56</v>
+        <v>-58</v>
       </c>
       <c r="X39">
-        <v>1720</v>
+        <v>-116</v>
       </c>
       <c r="Y39">
-        <v>325</v>
+        <v>0</v>
       </c>
       <c r="Z39">
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>1572</v>
+        <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>43373</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>-366</v>
+        <v>222</v>
       </c>
       <c r="D40">
-        <v>1960</v>
+        <v>3485</v>
       </c>
       <c r="E40">
-        <v>1834</v>
+        <v>2635</v>
       </c>
       <c r="F40">
-        <v>43</v>
+        <v>652</v>
       </c>
       <c r="G40">
-        <v>5412</v>
+        <v>5204</v>
       </c>
       <c r="H40">
-        <v>15280</v>
+        <v>12327</v>
       </c>
       <c r="I40">
-        <v>1432</v>
+        <v>2254</v>
       </c>
       <c r="J40">
-        <v>3930</v>
+        <v>4084</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -3926,78 +3947,78 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>2859</v>
+        <v>3387</v>
       </c>
       <c r="O40">
-        <v>8154</v>
+        <v>8518</v>
       </c>
       <c r="P40">
-        <v>4534</v>
+        <v>4108</v>
       </c>
       <c r="Q40">
-        <v>-170</v>
+        <v>-199</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>43373</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>7126</v>
+        <v>3809</v>
       </c>
       <c r="U40">
-        <v>1885</v>
+        <v>771</v>
       </c>
       <c r="V40">
-        <v>-106</v>
+        <v>171</v>
       </c>
       <c r="W40">
-        <v>0</v>
+        <v>-58</v>
       </c>
       <c r="X40">
-        <v>120</v>
+        <v>-161</v>
       </c>
       <c r="Y40">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="Z40">
         <v>0</v>
       </c>
       <c r="AA40">
-        <v>-366</v>
+        <v>222</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>43465</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>299</v>
+        <v>247</v>
       </c>
       <c r="D41">
-        <v>3668</v>
+        <v>3636</v>
       </c>
       <c r="E41">
-        <v>2620</v>
+        <v>2487</v>
       </c>
       <c r="F41">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="G41">
-        <v>6589</v>
+        <v>4777</v>
       </c>
       <c r="H41">
-        <v>16444</v>
+        <v>12480</v>
       </c>
       <c r="I41">
-        <v>2186</v>
+        <v>2334</v>
       </c>
       <c r="J41">
-        <v>3920</v>
+        <v>4038</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -4009,128 +4030,709 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>3579</v>
+        <v>3694</v>
       </c>
       <c r="O41">
-        <v>8890</v>
+        <v>8810</v>
       </c>
       <c r="P41">
-        <v>4424</v>
+        <v>4344</v>
       </c>
       <c r="Q41">
-        <v>237</v>
+        <v>-204</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>43465</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>143000</v>
       </c>
       <c r="T41">
-        <v>7554</v>
+        <v>3670</v>
       </c>
       <c r="U41">
-        <v>2122</v>
+        <v>567</v>
       </c>
       <c r="V41">
-        <v>559</v>
+        <v>757</v>
       </c>
       <c r="W41">
+        <v>-58</v>
+      </c>
+      <c r="X41">
+        <v>-73</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
         <v>-16</v>
       </c>
-      <c r="X41">
-        <v>-196</v>
-      </c>
-      <c r="Y41">
-        <v>309</v>
-      </c>
-      <c r="Z41">
-        <v>-1</v>
-      </c>
       <c r="AA41">
-        <v>299</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>43555</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>240</v>
+      </c>
+      <c r="D42">
+        <v>3575</v>
+      </c>
+      <c r="E42">
+        <v>2736</v>
+      </c>
+      <c r="F42">
+        <v>642</v>
+      </c>
+      <c r="G42">
+        <v>4819</v>
+      </c>
+      <c r="H42">
+        <v>13019</v>
+      </c>
+      <c r="I42">
+        <v>2340</v>
+      </c>
+      <c r="J42">
+        <v>3979</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>-659</v>
+      </c>
+      <c r="N42">
+        <v>4014</v>
+      </c>
+      <c r="O42">
+        <v>9384</v>
+      </c>
+      <c r="P42">
+        <v>4980</v>
+      </c>
+      <c r="Q42">
+        <v>-246</v>
+      </c>
+      <c r="R42">
+        <v>43555</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>3635</v>
+      </c>
+      <c r="U42">
+        <v>321</v>
+      </c>
+      <c r="V42">
+        <v>84</v>
+      </c>
+      <c r="W42">
+        <v>-57</v>
+      </c>
+      <c r="X42">
+        <v>-99</v>
+      </c>
+      <c r="Y42">
+        <v>366</v>
+      </c>
+      <c r="Z42">
+        <v>-3</v>
+      </c>
+      <c r="AA42">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>274</v>
+      </c>
+      <c r="D43">
+        <v>3627</v>
+      </c>
+      <c r="E43">
+        <v>2679</v>
+      </c>
+      <c r="F43">
+        <v>698</v>
+      </c>
+      <c r="G43">
+        <v>4854</v>
+      </c>
+      <c r="H43">
+        <v>13108</v>
+      </c>
+      <c r="I43">
+        <v>2284</v>
+      </c>
+      <c r="J43">
+        <v>3982</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>3991</v>
+      </c>
+      <c r="O43">
+        <v>9376</v>
+      </c>
+      <c r="P43">
+        <v>4956</v>
+      </c>
+      <c r="Q43">
+        <v>59</v>
+      </c>
+      <c r="R43">
+        <v>43646</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>3732</v>
+      </c>
+      <c r="U43">
+        <v>365</v>
+      </c>
+      <c r="V43">
+        <v>512</v>
+      </c>
+      <c r="W43">
+        <v>-57</v>
+      </c>
+      <c r="X43">
+        <v>-216</v>
+      </c>
+      <c r="Y43">
+        <v>365</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
+      </c>
+      <c r="AA43">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>246</v>
+      </c>
+      <c r="D44">
+        <v>3559</v>
+      </c>
+      <c r="E44">
+        <v>2661</v>
+      </c>
+      <c r="F44">
+        <v>706</v>
+      </c>
+      <c r="G44">
+        <v>5385</v>
+      </c>
+      <c r="H44">
+        <v>12939</v>
+      </c>
+      <c r="I44">
+        <v>2232</v>
+      </c>
+      <c r="J44">
+        <v>3920</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>3875</v>
+      </c>
+      <c r="O44">
+        <v>9158</v>
+      </c>
+      <c r="P44">
+        <v>4804</v>
+      </c>
+      <c r="Q44">
+        <v>-23</v>
+      </c>
+      <c r="R44">
+        <v>43738</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>3781</v>
+      </c>
+      <c r="U44">
+        <v>341</v>
+      </c>
+      <c r="V44">
+        <v>325</v>
+      </c>
+      <c r="W44">
+        <v>-56</v>
+      </c>
+      <c r="X44">
+        <v>-174</v>
+      </c>
+      <c r="Y44">
+        <v>348</v>
+      </c>
+      <c r="Z44">
+        <v>-1</v>
+      </c>
+      <c r="AA44">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>230</v>
+      </c>
+      <c r="D45">
+        <v>3596</v>
+      </c>
+      <c r="E45">
+        <v>2569</v>
+      </c>
+      <c r="F45">
+        <v>717</v>
+      </c>
+      <c r="G45">
+        <v>5319</v>
+      </c>
+      <c r="H45">
+        <v>13459</v>
+      </c>
+      <c r="I45">
+        <v>2463</v>
+      </c>
+      <c r="J45">
+        <v>3953</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>4054</v>
+      </c>
+      <c r="O45">
+        <v>9448</v>
+      </c>
+      <c r="P45">
+        <v>4787</v>
+      </c>
+      <c r="Q45">
+        <v>71</v>
+      </c>
+      <c r="R45">
+        <v>43830</v>
+      </c>
+      <c r="S45">
+        <v>141000</v>
+      </c>
+      <c r="T45">
+        <v>4011</v>
+      </c>
+      <c r="U45">
+        <v>412</v>
+      </c>
+      <c r="V45">
+        <v>703</v>
+      </c>
+      <c r="W45">
+        <v>-56</v>
+      </c>
+      <c r="X45">
+        <v>-160</v>
+      </c>
+      <c r="Y45">
+        <v>347</v>
+      </c>
+      <c r="Z45">
+        <v>-6</v>
+      </c>
+      <c r="AA45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>1572</v>
+      </c>
+      <c r="D46">
+        <v>3226</v>
+      </c>
+      <c r="E46">
+        <v>2308</v>
+      </c>
+      <c r="F46">
+        <v>528</v>
+      </c>
+      <c r="G46">
+        <v>6190</v>
+      </c>
+      <c r="H46">
+        <v>16167</v>
+      </c>
+      <c r="I46">
+        <v>2243</v>
+      </c>
+      <c r="J46">
+        <v>5947</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>-29</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>3655</v>
+      </c>
+      <c r="O46">
+        <v>11014</v>
+      </c>
+      <c r="P46">
+        <v>6625</v>
+      </c>
+      <c r="Q46">
+        <v>1658</v>
+      </c>
+      <c r="R46">
+        <v>43921</v>
+      </c>
+      <c r="S46">
+        <v>0</v>
+      </c>
+      <c r="T46">
+        <v>5153</v>
+      </c>
+      <c r="U46">
+        <v>2055</v>
+      </c>
+      <c r="V46">
+        <v>161</v>
+      </c>
+      <c r="W46">
+        <v>-56</v>
+      </c>
+      <c r="X46">
+        <v>1720</v>
+      </c>
+      <c r="Y46">
+        <v>325</v>
+      </c>
+      <c r="Z46">
+        <v>0</v>
+      </c>
+      <c r="AA46">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>-366</v>
+      </c>
+      <c r="D47">
+        <v>1960</v>
+      </c>
+      <c r="E47">
+        <v>1834</v>
+      </c>
+      <c r="F47">
+        <v>43</v>
+      </c>
+      <c r="G47">
+        <v>5412</v>
+      </c>
+      <c r="H47">
+        <v>15280</v>
+      </c>
+      <c r="I47">
+        <v>1432</v>
+      </c>
+      <c r="J47">
+        <v>3930</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2859</v>
+      </c>
+      <c r="O47">
+        <v>8154</v>
+      </c>
+      <c r="P47">
+        <v>4534</v>
+      </c>
+      <c r="Q47">
+        <v>-170</v>
+      </c>
+      <c r="R47">
+        <v>44012</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>7126</v>
+      </c>
+      <c r="U47">
+        <v>1885</v>
+      </c>
+      <c r="V47">
+        <v>-106</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>120</v>
+      </c>
+      <c r="Y47">
+        <v>309</v>
+      </c>
+      <c r="Z47">
+        <v>0</v>
+      </c>
+      <c r="AA47">
+        <v>-366</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
         <v>299</v>
       </c>
-      <c r="D42">
+      <c r="D48">
+        <v>3668</v>
+      </c>
+      <c r="E48">
+        <v>2620</v>
+      </c>
+      <c r="F48">
+        <v>674</v>
+      </c>
+      <c r="G48">
+        <v>6589</v>
+      </c>
+      <c r="H48">
+        <v>16444</v>
+      </c>
+      <c r="I48">
+        <v>2186</v>
+      </c>
+      <c r="J48">
+        <v>3920</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3579</v>
+      </c>
+      <c r="O48">
+        <v>8890</v>
+      </c>
+      <c r="P48">
+        <v>4424</v>
+      </c>
+      <c r="Q48">
+        <v>237</v>
+      </c>
+      <c r="R48">
+        <v>44104</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>7554</v>
+      </c>
+      <c r="U48">
+        <v>2122</v>
+      </c>
+      <c r="V48">
+        <v>559</v>
+      </c>
+      <c r="W48">
+        <v>-16</v>
+      </c>
+      <c r="X48">
+        <v>-196</v>
+      </c>
+      <c r="Y48">
+        <v>309</v>
+      </c>
+      <c r="Z48">
+        <v>-1</v>
+      </c>
+      <c r="AA48">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>299</v>
+      </c>
+      <c r="D49">
         <v>4212</v>
       </c>
-      <c r="E42">
+      <c r="E49">
         <v>2812</v>
       </c>
-      <c r="F42">
+      <c r="F49">
         <v>812</v>
       </c>
-      <c r="G42">
+      <c r="G49">
         <v>7465</v>
       </c>
-      <c r="H42">
+      <c r="H49">
         <v>17522</v>
       </c>
-      <c r="I42">
+      <c r="I49">
         <v>2571</v>
       </c>
-      <c r="J42">
+      <c r="J49">
         <v>3997</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <v>4046</v>
       </c>
-      <c r="O42">
+      <c r="O49">
         <v>9422</v>
       </c>
-      <c r="P42">
+      <c r="P49">
         <v>4501</v>
       </c>
-      <c r="Q42">
+      <c r="Q49">
         <v>699</v>
       </c>
-      <c r="R42">
+      <c r="R49">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S49">
         <v>151000</v>
       </c>
-      <c r="T42">
+      <c r="T49">
         <v>8100</v>
       </c>
-      <c r="U42">
+      <c r="U49">
         <v>2821</v>
       </c>
-      <c r="V42">
+      <c r="V49">
         <v>799</v>
       </c>
-      <c r="W42">
+      <c r="W49">
         <v>-16</v>
       </c>
-      <c r="X42">
+      <c r="X49">
         <v>-31</v>
       </c>
-      <c r="Y42">
+      <c r="Y49">
         <v>314</v>
       </c>
-      <c r="Z42">
+      <c r="Z49">
         <v>-1</v>
       </c>
-      <c r="AA42">
+      <c r="AA49">
         <v>299</v>
       </c>
     </row>
